--- a/docs/resource_application.xlsx
+++ b/docs/resource_application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tappei_Maekawa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tappei_Maekawa\PythonDoc\basic-design-document\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642936A3-2806-45F8-BAAD-E4793F7D1B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F524A9-2DDB-498A-A150-1356E06A8243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E41C39A-86FE-496A-93DA-D00C7B9F84CD}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2E41C39A-86FE-496A-93DA-D00C7B9F84CD}"/>
   </bookViews>
   <sheets>
     <sheet name="資材リスト" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>チーム番号</t>
     <rPh sb="3" eb="5">
@@ -127,40 +127,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カメラ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>食品サンプル</t>
-    <rPh sb="0" eb="2">
-      <t>ショクヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リンゴ、トマト、ジャガイモ、レタス、牛肉バラ、玉ねぎ、卵、醤油</t>
-    <rPh sb="18" eb="20">
-      <t>ギュウニク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>タマゴ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウユ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>各1</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>サーバー用PC</t>
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
@@ -189,26 +155,6 @@
     <t>https://amzn.asia/d/dV3IwJ2</t>
   </si>
   <si>
-    <t>theta</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://amzn.asia/d/7y7yyOj</t>
-  </si>
-  <si>
-    <t>https://amzn.asia/d/cqCY8G2</t>
-  </si>
-  <si>
-    <t>食材認識</t>
-    <rPh sb="0" eb="2">
-      <t>ショクザイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>msi</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -226,48 +172,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>保冷剤</t>
+    <t>スマホ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>歩数計として使用</t>
     <rPh sb="0" eb="3">
-      <t>ホレイザイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>保冷バッグ</t>
-    <rPh sb="0" eb="2">
-      <t>ホレイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://amzn.asia/d/0gOxZmu</t>
-  </si>
-  <si>
-    <t>冷蔵庫を借りる際の食材避難</t>
-    <rPh sb="0" eb="3">
-      <t>レイゾウコ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショクザイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒナン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://amzn.asia/d/00dFSbG</t>
-  </si>
-  <si>
-    <t>カメラ認識検証</t>
-    <rPh sb="3" eb="7">
-      <t>ニンシキケンショウ</t>
+      <t>ホスウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -373,14 +287,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -699,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F93FC33-3105-4C22-BF93-7122294A33EF}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -717,8 +631,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
@@ -757,17 +671,17 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>60000</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>60000</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
@@ -778,169 +692,117 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>10000</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>10000</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="7" t="s">
-        <v>20</v>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>50000</v>
-      </c>
-      <c r="G6" s="6">
-        <v>100000</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B8" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>20000</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>20000</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B9" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>150000</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>150000</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="7" t="s">
-        <v>26</v>
+      <c r="I9" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B10" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5000</v>
-      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B11" s="4">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
@@ -1140,12 +1002,8 @@
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" xr:uid="{F72205E9-F199-4393-8AB8-EB5F485D0485}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{C3DE6F53-0940-422C-B941-09989F311A4C}"/>
-    <hyperlink ref="I6" r:id="rId3" xr:uid="{27DF2E2D-8524-4E39-BBE5-DE89CC0E4BCC}"/>
-    <hyperlink ref="I7" r:id="rId4" xr:uid="{A0A25E73-E4FB-4746-9DC7-EAEF31713DD0}"/>
-    <hyperlink ref="I9" r:id="rId5" xr:uid="{95A2CF45-5B21-4C8F-8A71-3419E0F4FE75}"/>
-    <hyperlink ref="I8" r:id="rId6" xr:uid="{E98835FA-6F00-4956-8D7F-FE963E3D2923}"/>
-    <hyperlink ref="I10" r:id="rId7" xr:uid="{BB35B97C-084D-41C0-A51F-F1FF6CE8839B}"/>
-    <hyperlink ref="I11" r:id="rId8" xr:uid="{69023A12-673D-4287-AC44-B6ADEBC99B75}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{95A2CF45-5B21-4C8F-8A71-3419E0F4FE75}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{E98835FA-6F00-4956-8D7F-FE963E3D2923}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
